--- a/static/templates/Finance_Lessons_Learned.xlsx
+++ b/static/templates/Finance_Lessons_Learned.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions &amp; User Guide" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lessons Learned" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lessons Learned Overview" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,29 +27,10 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -59,18 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7F3FF"/>
-        <bgColor rgb="00E7F3FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="004A90E2"/>
+        <bgColor rgb="004A90E2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -78,33 +52,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,404 +434,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="80" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>FINANCE - CORE BANKING SYSTEM MODERNIZATION</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FINANCE - LESSONS LEARNED</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Lessons Learned</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Project: FINANCE Lessons Learned</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Date: July 31, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>PMI 2025 Standards Compliant</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>DOCUMENT OVERVIEW</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>This template captures lessons learned throughout the Core Banking System Modernization project to improve future projects and organizational knowledge.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LESSONS LEARNED SUMMARY</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Lesson_ID</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Lesson_Description</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Impact_Level</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>Recommendation</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>Future_Application</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>Stakeholder</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>Date_Identified</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LL001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Data quality assessment must be completed before model development begins</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Implement best practice based on: Data quality assessment must be completed before m...</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Apply to future AI/ML Implementation projects</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Chief Data Officer</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Validated</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Critical lesson for Artificial Intelligence and Machine Learning projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LL002</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stakeholder buy-in is critical for AI adoption and change management success</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Implement best practice based on: Stakeholder buy-in is critical for AI adoption and...</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Apply to future AI/ML Implementation projects</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Data Scientists</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Validated</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Critical lesson for Artificial Intelligence and Machine Learning projects</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>KEY FEATURES</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LL003</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Model interpretability requirements should be defined early in the project</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Implement best practice based on: Model interpretability requirements should be defi...</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Apply to future AI/ML Implementation projects</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ML Engineers</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Validated</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Critical lesson for Artificial Intelligence and Machine Learning projects</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>• Structured lessons learned capture</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LL004</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Regulatory compliance frameworks must be established before deployment</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Implement best practice based on: Regulatory compliance frameworks must be establish...</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Apply to future AI/ML Implementation projects</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Business Analysts</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Validated</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Critical lesson for Artificial Intelligence and Machine Learning projects</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>• Categorization by project phase</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LL005</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cross-functional teams accelerate AI implementation and reduce silos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Implement best practice based on: Cross-functional teams accelerate AI implementatio...</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Apply to future AI/ML Implementation projects</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ethics Committee</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Validated</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Critical lesson for Artificial Intelligence and Machine Learning projects</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>• Actionable recommendations</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LL006</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Continuous monitoring is essential for maintaining model performance</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Implement best practice based on: Continuous monitoring is essential for maintaining...</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Apply to future AI/ML Implementation projects</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Validated</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Critical lesson for Artificial Intelligence and Machine Learning projects</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>• PMI 2025 knowledge management standards</t>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LL007</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Data governance policies prevent future compliance and quality issues</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Implement best practice based on: Data governance policies prevent future compliance...</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Apply to future AI/ML Implementation projects</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Chief Data Officer</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Validated</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Critical lesson for Artificial Intelligence and Machine Learning projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LL008</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>User training programs significantly impact AI tool adoption rates</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Implement best practice based on: User training programs significantly impact AI too...</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Apply to future AI/ML Implementation projects</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Data Scientists</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Validated</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Critical lesson for Artificial Intelligence and Machine Learning projects</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>HOW TO USE THIS TEMPLATE</t>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LL009</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vendor evaluation criteria should include long-term support capabilities</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Implement best practice based on: Vendor evaluation criteria should include long-ter...</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Apply to future AI/ML Implementation projects</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ML Engineers</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Validated</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Critical lesson for Artificial Intelligence and Machine Learning projects</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1. Review all tabs to understand the template structure</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2. Fill in the yellow highlighted cells with your project-specific information</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3. Do not modify formulas or calculated fields</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4. Use dropdown menus where provided for consistency</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>5. Save regularly and maintain version control</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>6. Export to PDF for stakeholder distribution</t>
+          <t>LL010</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pilot projects help validate technical feasibility before full implementation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Implement best practice based on: Pilot projects help validate technical feasibility...</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Apply to future AI/ML Implementation projects</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Business Analysts</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Validated</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Critical lesson for Artificial Intelligence and Machine Learning projects</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A6:F8"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A20:F20"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>FINANCE - CORE BANKING SYSTEM MODERNIZATION - LESSONS LEARNED</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Lesson_ID</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Project_Phase</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Lesson_Description</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>Root_Cause</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Recommendation</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>Applicable_To</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>Submitted_By</t>
-        </is>
-      </c>
-      <c r="J3" s="7" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>LL-001</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>Requirements</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Early stakeholder engagement prevented scope creep</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Proactive communication</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>Engage stakeholders from day one</t>
-        </is>
-      </c>
-      <c r="H4" s="8" t="inlineStr">
-        <is>
-          <t>All projects</t>
-        </is>
-      </c>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>Project Manager</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>LL-002</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Execution</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>Technical</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>Legacy system documentation was incomplete</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>Poor documentation practices</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>Conduct thorough system audit before migration</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>Migration projects</t>
-        </is>
-      </c>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>Technical Lead</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>LL-003</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>Resource</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>SME availability was overestimated</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>Competing priorities</t>
-        </is>
-      </c>
-      <c r="G6" s="8" t="inlineStr">
-        <is>
-          <t>Secure dedicated SME time upfront</t>
-        </is>
-      </c>
-      <c r="H6" s="8" t="inlineStr">
-        <is>
-          <t>All projects</t>
-        </is>
-      </c>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>Resource Manager</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>2025-07-20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation sqref="C8:C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Process,Technical,Management,Strategic"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D8:D17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I8:I17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Validated,Under Review,Pending"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>